--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/29_Elazığ_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/29_Elazığ_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C98AE23-8831-4B25-9DD8-17016F119A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3EAD17-CDC7-454A-B04A-87A5E41B1027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{66D5F8FB-E522-4655-9518-1683CCF3A04D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{3767FE1A-83E1-454E-AE86-06FC4A5BA718}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -920,13 +920,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{03038A39-F517-4908-B080-E968BD4F9884}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E0650882-FB79-4C22-B665-6B8AA0B5129E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B0D74311-884F-42B7-B71E-CEF8EC6D4C72}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6E4007A0-85F6-44D3-8F09-F702E6FDC2A6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FEFFB187-1A48-4893-AE4C-6416CE4F1FC7}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{FC4E34B1-53D2-4464-807A-4946553EF5AA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{747A1A87-4FFC-4930-9458-084F9613F524}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2954A558-DF02-439B-8EA2-376963B33692}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{49E6248F-CCA3-41B7-9354-AF4F8B6B141E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B40B19EF-6762-4306-95AE-36ABEFEC9202}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{EA91DEBB-922A-42BA-BC34-75F309D38955}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DAE90635-CFF1-4A68-AA9F-3F022F317B4F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{83DA1A88-C8DE-4CFB-B33D-568BE6F13C1D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{ED64C212-DD83-437A-8BB0-1C77B42B23F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A128C67-EB4C-4F59-A530-94F1291DECA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7114E124-A9E1-41F1-BDEB-FA8559A4C808}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2582,7 +2582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5803E21-F17B-4A28-93B2-199F3CDF8B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87BAB9E-D306-4738-A4D9-1C240B7F0317}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3823,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BAF3C-E8E1-41F0-915B-B6D3B8277986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CD115-B8CA-47D4-8EB5-35ADB8D92036}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5052,7 +5052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC1A228-75B9-47F9-B003-9E743E3A0D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325A7403-1775-4BF1-8CD0-FC81372CC6AE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6277,7 +6277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC86930-9DC9-4206-BE2B-053AA146D266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C248D277-C0CC-4519-BF47-7A4558C27EDA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7562,7 +7562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF15B6-8FD2-48E3-A220-DEFCF8791B2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E3754-4326-4DF2-95DD-2F80B7482216}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8847,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5DAB78-7469-4C59-8FB9-27D2DCBF4196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CD021E-F39A-46C6-97C5-75B20BA0DE45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10132,7 +10132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C79A4-6B70-4ABE-AFEA-C783DFD673A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D55568-2371-4C1E-9AD5-C2DCECCF01FF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11417,7 +11417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B115D4-D9A4-4F14-9A21-67CDA7A940AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A585487D-3028-4B47-AF20-CBC01A57993C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12694,7 +12694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BDB8CE-2ED4-4157-AABC-8F8138920B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C8ADE-D730-4F58-ABC1-8AD633238E30}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13959,7 +13959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282BDBE1-8D2D-458D-9C88-7EF17A9835E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42BED2-DCAD-4C92-BF16-A86FB9ABE939}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15224,7 +15224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEC11EE-6C35-44B8-BE74-223931F0DAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4270CD-DBE6-4CFC-9BA9-1A2C42A0D98C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
